--- a/doc/Scripts/DT_ScriptTable_Player.xlsx
+++ b/doc/Scripts/DT_ScriptTable_Player.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\doc\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82DAA9D-C024-45F1-9D8E-6809256FFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A6368-C0C6-46C3-B0DA-620039945A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
+    <workbookView xWindow="37425" yWindow="6630" windowWidth="18450" windowHeight="8970" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ScriptString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ScriptImageSprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>(아이템 획득, 수첩에서 확인 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScriptDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +511,7 @@
   <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -541,10 +541,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -616,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>2</v>

--- a/doc/Scripts/DT_ScriptTable_Player.xlsx
+++ b/doc/Scripts/DT_ScriptTable_Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\doc\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A6368-C0C6-46C3-B0DA-620039945A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A28E0A-22A9-4DC0-9428-4C2877D5FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37425" yWindow="6630" windowWidth="18450" windowHeight="8970" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
+    <workbookView xWindow="34395" yWindow="6015" windowWidth="18450" windowHeight="8970" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ScriptSprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ScriptShowName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>ScriptDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterSprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +511,7 @@
   <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -535,16 +535,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -616,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>2</v>
